--- a/Delay Model/data.xlsx
+++ b/Delay Model/data.xlsx
@@ -386,19 +386,19 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>376.29590340869299</v>
+        <v>3365.7963823295108</v>
       </c>
       <c r="D1">
-        <v>376.29590340869299</v>
+        <v>3365.7963823295108</v>
       </c>
       <c r="E1">
-        <v>376.29590340869299</v>
+        <v>3365.7963823295108</v>
       </c>
       <c r="F1">
-        <v>376.29590340869299</v>
+        <v>3365.7963823295108</v>
       </c>
       <c r="G1">
-        <v>1200</v>
+        <v>12000</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -416,22 +416,22 @@
         <v>10.016292735042736</v>
       </c>
       <c r="M1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N1">
         <v>0</v>
       </c>
       <c r="O1">
-        <v>6.1091988842941589</v>
+        <v>1.1757891266621858</v>
       </c>
       <c r="P1">
-        <v>1.2639868563798952E-2</v>
+        <v>4.4086019364397875E-3</v>
       </c>
       <c r="Q1">
-        <v>8.9793498846007912E-3</v>
+        <v>4.3645130726325627E-3</v>
       </c>
       <c r="R1">
-        <v>3.4836873816354545</v>
+        <v>3.7198960526813565</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>911.02484881446276</v>
+        <v>7846.4664574118069</v>
       </c>
       <c r="D2">
-        <v>1576.295903408693</v>
+        <v>15365.79638232951</v>
       </c>
       <c r="E2">
-        <v>911.02484881446276</v>
+        <v>7846.4664574118069</v>
       </c>
       <c r="F2">
-        <v>911.02484881446276</v>
+        <v>7846.4664574118069</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -472,22 +472,22 @@
         <v>20.047657188626353</v>
       </c>
       <c r="M2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.502010170604235</v>
+        <v>3.5266895492610564</v>
       </c>
       <c r="P2">
-        <v>1.3201931265648014E-2</v>
+        <v>7.2661291997131667E-3</v>
       </c>
       <c r="Q2">
-        <v>1.1848827888777577E-2</v>
+        <v>7.8600488618388691E-3</v>
       </c>
       <c r="R2">
-        <v>1.5468912755694439</v>
+        <v>2.127070932155203</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -498,19 +498,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1711.7751377299221</v>
+        <v>15576.765678430065</v>
       </c>
       <c r="D3">
-        <v>2377.0461923241523</v>
+        <v>23096.095603347771</v>
       </c>
       <c r="E3">
-        <v>1711.7751377299221</v>
+        <v>15576.765678430065</v>
       </c>
       <c r="F3">
-        <v>1711.7751377299221</v>
+        <v>15576.765678430065</v>
       </c>
       <c r="G3">
-        <v>3600</v>
+        <v>36000</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -528,22 +528,22 @@
         <v>25.047657188626353</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.745197009234783</v>
+        <v>9.3555172377501936</v>
       </c>
       <c r="P3">
-        <v>1.6218182728404817E-2</v>
+        <v>1.0338696340652749E-2</v>
       </c>
       <c r="Q3">
-        <v>1.6379178421343364E-2</v>
+        <v>1.0837327168098322E-2</v>
       </c>
       <c r="R3">
-        <v>1.1500741547299453</v>
+        <v>1.5068236761180864</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2568.5933698298486</v>
+        <v>23841.462561133318</v>
       </c>
       <c r="D4">
-        <v>3577.0461923241523</v>
+        <v>31381.680013939927</v>
       </c>
       <c r="E4">
-        <v>2568.5933698298486</v>
+        <v>23862.35008902222</v>
       </c>
       <c r="F4">
-        <v>2568.5933698298486</v>
+        <v>23862.35008902222</v>
       </c>
       <c r="G4">
-        <v>4800</v>
+        <v>48000</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>30.047657188626353</v>
       </c>
       <c r="J4">
-        <v>70.01629273504274</v>
+        <v>50.030818619582661</v>
       </c>
       <c r="K4">
         <v>30.047657188626353</v>
@@ -584,22 +584,22 @@
         <v>30.047657188626353</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.452323372649278</v>
+        <v>11.105049255794201</v>
       </c>
       <c r="P4">
-        <v>1.7974344226995963E-2</v>
+        <v>1.4463707327313165E-2</v>
       </c>
       <c r="Q4">
-        <v>1.7295090314032622E-2</v>
+        <v>1.4627831678389089E-2</v>
       </c>
       <c r="R4">
-        <v>0.75664334789121246</v>
+        <v>1.4606481290535087</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -610,19 +610,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3196.5796880863691</v>
+        <v>30484.95053411361</v>
       </c>
       <c r="D5">
-        <v>3886.6260302494811</v>
+        <v>38019.301346671884</v>
       </c>
       <c r="E5">
-        <v>3211.6005757269377</v>
+        <v>30499.971421754177</v>
       </c>
       <c r="F5">
-        <v>3211.6005757269377</v>
+        <v>30499.971421754177</v>
       </c>
       <c r="G5">
-        <v>6000</v>
+        <v>60000</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>35.047657188626353</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.699083120995375</v>
+        <v>11.021150707967598</v>
       </c>
       <c r="P5">
-        <v>2.4870136778072274E-2</v>
+        <v>1.7560736676558691E-2</v>
       </c>
       <c r="Q5">
-        <v>2.3837033674268735E-2</v>
+        <v>1.7359919013023851E-2</v>
       </c>
       <c r="R5">
-        <v>1.606342206300905</v>
+        <v>1.3893174674105073</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -666,19 +666,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3797.4283384535247</v>
+        <v>36108.653193873208</v>
       </c>
       <c r="D6">
-        <v>4487.4746806166368</v>
+        <v>43643.004006431482</v>
       </c>
       <c r="E6">
-        <v>3812.4492260940929</v>
+        <v>36123.674081513775</v>
       </c>
       <c r="F6">
-        <v>3812.4492260940929</v>
+        <v>36123.674081513775</v>
       </c>
       <c r="G6">
-        <v>7200</v>
+        <v>72000</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -696,22 +696,22 @@
         <v>40.047657188626353</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.107412856103416</v>
+        <v>11.537445240920041</v>
       </c>
       <c r="P6">
-        <v>2.4844536756226922E-2</v>
+        <v>2.1133072422074354E-2</v>
       </c>
       <c r="Q6">
-        <v>2.5478848408617309E-2</v>
+        <v>2.1081019118353569E-2</v>
       </c>
       <c r="R6">
-        <v>0.99547875169742372</v>
+        <v>0.87519921766444508</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4577.3448738785937</v>
+        <v>43250.826101225575</v>
       </c>
       <c r="D7">
-        <v>5229.9813018019486</v>
+        <v>50747.766999544096</v>
       </c>
       <c r="E7">
-        <v>4553.825392217047</v>
+        <v>43227.306619564028</v>
       </c>
       <c r="F7">
-        <v>5230.0481573195266</v>
+        <v>43903.529384666501</v>
       </c>
       <c r="G7">
-        <v>8400</v>
+        <v>84000</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -752,22 +752,22 @@
         <v>45.03161440787769</v>
       </c>
       <c r="M7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.659232420322777</v>
+        <v>9.1455370549833646</v>
       </c>
       <c r="P7">
-        <v>2.8758495651694069E-2</v>
+        <v>2.6902171362320291E-2</v>
       </c>
       <c r="Q7">
-        <v>2.8862033517824157E-2</v>
+        <v>2.4886883619906208E-2</v>
       </c>
       <c r="R7">
-        <v>1.0342249536497383</v>
+        <v>0.92245536855872368</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -778,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5350.5813741593156</v>
+        <v>50314.148862493443</v>
       </c>
       <c r="D8">
-        <v>6428.4414220622975</v>
+        <v>62659.036121223719</v>
       </c>
       <c r="E8">
-        <v>5328.4348265498493</v>
+        <v>50276.981427243401</v>
       </c>
       <c r="F8">
-        <v>6079.8087343471125</v>
+        <v>51028.355335040673</v>
       </c>
       <c r="G8">
-        <v>9600</v>
+        <v>96000</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -808,22 +808,22 @@
         <v>50.043859649122808</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.991018374557902</v>
+        <v>11.207010300011918</v>
       </c>
       <c r="P8">
-        <v>3.2304952011336825E-2</v>
+        <v>2.8927699098908959E-2</v>
       </c>
       <c r="Q8">
-        <v>3.2327138696936132E-2</v>
+        <v>2.9367165515568061E-2</v>
       </c>
       <c r="R8">
-        <v>5.2579389934412744</v>
+        <v>4.7431906172071159</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -834,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5804.6929837001153</v>
+        <v>53457.510894370018</v>
       </c>
       <c r="D9">
-        <v>6801.2767922159601</v>
+        <v>65736.409883952641</v>
       </c>
       <c r="E9">
-        <v>5782.2793534917309</v>
+        <v>53435.364346760543</v>
       </c>
       <c r="F9">
-        <v>6074.1893704959248</v>
+        <v>53727.274363764751</v>
       </c>
       <c r="G9">
-        <v>10800</v>
+        <v>108000</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>55.127083333333331</v>
       </c>
       <c r="M9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>29.122708869156014</v>
+        <v>14.544679796804383</v>
       </c>
       <c r="P9">
-        <v>4.055100349241187E-2</v>
+        <v>3.3966629565650733E-2</v>
       </c>
       <c r="Q9">
-        <v>3.8736246388263583E-2</v>
+        <v>3.3698967495698492E-2</v>
       </c>
       <c r="R9">
-        <v>0.22532143671873711</v>
+        <v>0.19690968353582447</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -890,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6435.2517596301332</v>
+        <v>59359.252386211381</v>
       </c>
       <c r="D10">
-        <v>7524.8360359703211</v>
+        <v>77736.409883952641</v>
       </c>
       <c r="E10">
-        <v>6372.8557409071218</v>
+        <v>59385.625283790883</v>
       </c>
       <c r="F10">
-        <v>6613.5262124902656</v>
+        <v>59536.048269731713</v>
       </c>
       <c r="G10">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>65.047657188626346</v>
       </c>
       <c r="J10">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K10">
         <v>85</v>
@@ -920,22 +920,22 @@
         <v>65.030818619582675</v>
       </c>
       <c r="M10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2507.7159245220332</v>
+        <v>131.26149474901632</v>
       </c>
       <c r="P10">
-        <v>3.9767358379256927E-2</v>
+        <v>3.5259144385908971E-2</v>
       </c>
       <c r="Q10">
-        <v>4.2903361055312547E-2</v>
+        <v>3.6748494649745264E-2</v>
       </c>
       <c r="R10">
-        <v>0.18888691673905783</v>
+        <v>0.10929970670950018</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -946,281 +946,281 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6968.6628867012814</v>
+        <v>64176.78174056342</v>
       </c>
       <c r="D11">
-        <v>8442.4065928821474</v>
+        <v>86707.112521339062</v>
       </c>
       <c r="E11">
-        <v>6933.6364446111702</v>
+        <v>64099.551779437606</v>
       </c>
       <c r="F11">
-        <v>6933.6364446111702</v>
+        <v>64099.551779437606</v>
       </c>
       <c r="G11">
-        <v>13200</v>
+        <v>132000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>70.009245985758398</v>
+        <v>70.252955423154276</v>
       </c>
       <c r="J11">
-        <v>130.00924598575841</v>
+        <v>170</v>
       </c>
       <c r="K11">
-        <v>70.012155872132539</v>
+        <v>90</v>
       </c>
       <c r="L11">
-        <v>70.012155872132539</v>
+        <v>90</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>76.913475339498959</v>
+        <v>112.44956333535953</v>
       </c>
       <c r="P11">
-        <v>6.2323822071883722E-2</v>
+        <v>3.8373524836394758E-2</v>
       </c>
       <c r="Q11">
-        <v>5.2635351582166687E-2</v>
+        <v>3.9293986534976552E-2</v>
       </c>
       <c r="R11">
-        <v>0.11706804656473307</v>
+        <v>6.9721122291983759</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7563.9835270024969</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>9642.4065928821474</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7520.6045651623208</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7520.6045651623208</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>80.009245985758398</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>160.00924598575841</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>80.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>80.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>54.603159270251467</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4.6607115326960637E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.695812007092913E-2</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>8.9388734056164168E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8412.5093612597921</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>10490.932427139442</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>8369.1303994196151</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>8369.1303994196151</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>85.009245985758398</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>165.00924598575841</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>85.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>85.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>76.952889133132061</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>5.2258462371665669E-2</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>5.3334801067919137E-2</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.14074010232044287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9252.831234706211</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>11690.932427139442</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>9138.6290081016232</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>9138.6290081016232</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>95.009245985758398</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>195.00924598575841</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>95.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>95.012155872132539</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>129.0134536648138</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>5.6612741642872867E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>5.6614163866308721E-2</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.14362949145272161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9717.612518241529</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>11893.029500740955</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>9594.8473295555705</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>10349.902163448092</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>100.01240009941007</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>180.01240009941006</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>100.02347638788108</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>204.99199174427741</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5.9127517122147942E-2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>6.1086203238004538E-2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0.19683714574547548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>

--- a/Delay Model/data.xlsx
+++ b/Delay Model/data.xlsx
@@ -386,16 +386,16 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3365.7963823295108</v>
+        <v>3437.9810620581961</v>
       </c>
       <c r="D1">
-        <v>3365.7963823295108</v>
+        <v>3437.9810620581961</v>
       </c>
       <c r="E1">
-        <v>3365.7963823295108</v>
+        <v>3437.9810620581961</v>
       </c>
       <c r="F1">
-        <v>3365.7963823295108</v>
+        <v>3437.9810620581961</v>
       </c>
       <c r="G1">
         <v>12000</v>
@@ -422,16 +422,16 @@
         <v>0</v>
       </c>
       <c r="O1">
-        <v>1.1757891266621858</v>
+        <v>2.1722486486763244</v>
       </c>
       <c r="P1">
-        <v>4.4086019364397875E-3</v>
+        <v>4.2911264477147317E-3</v>
       </c>
       <c r="Q1">
-        <v>4.3645130726325627E-3</v>
+        <v>4.0177754921099425E-3</v>
       </c>
       <c r="R1">
-        <v>3.7198960526813565</v>
+        <v>3.6928380058521566</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7846.4664574118069</v>
+        <v>7963.3709603826101</v>
       </c>
       <c r="D2">
-        <v>15365.79638232951</v>
+        <v>16639.936190263325</v>
       </c>
       <c r="E2">
-        <v>7846.4664574118069</v>
+        <v>7963.3709603826101</v>
       </c>
       <c r="F2">
-        <v>7846.4664574118069</v>
+        <v>7963.3709603826101</v>
       </c>
       <c r="G2">
         <v>24000</v>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.5266895492610564</v>
+        <v>6.7413431515914519</v>
       </c>
       <c r="P2">
-        <v>7.2661291997131667E-3</v>
+        <v>8.793026108856258E-3</v>
       </c>
       <c r="Q2">
-        <v>7.8600488618388691E-3</v>
+        <v>7.9652932464109524E-3</v>
       </c>
       <c r="R2">
-        <v>2.127070932155203</v>
+        <v>2.0414773808484235</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15576.765678430065</v>
+        <v>15719.502686049842</v>
       </c>
       <c r="D3">
-        <v>23096.095603347771</v>
+        <v>24396.067915930555</v>
       </c>
       <c r="E3">
-        <v>15576.765678430065</v>
+        <v>15719.502686049842</v>
       </c>
       <c r="F3">
-        <v>15576.765678430065</v>
+        <v>15719.502686049842</v>
       </c>
       <c r="G3">
         <v>36000</v>
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.3555172377501936</v>
+        <v>9.4478216830169988</v>
       </c>
       <c r="P3">
-        <v>1.0338696340652749E-2</v>
+        <v>1.1140260329096346E-2</v>
       </c>
       <c r="Q3">
-        <v>1.0837327168098322E-2</v>
+        <v>1.151572678216432E-2</v>
       </c>
       <c r="R3">
-        <v>1.5068236761180864</v>
+        <v>1.4896000059164411</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -554,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>23841.462561133318</v>
+        <v>23997.701653556047</v>
       </c>
       <c r="D4">
-        <v>31381.680013939927</v>
+        <v>33173.201411883587</v>
       </c>
       <c r="E4">
-        <v>23862.35008902222</v>
+        <v>24494.893075858083</v>
       </c>
       <c r="F4">
-        <v>23862.35008902222</v>
+        <v>24341.823999796783</v>
       </c>
       <c r="G4">
         <v>48000</v>
@@ -581,7 +581,7 @@
         <v>30.047657188626353</v>
       </c>
       <c r="L4">
-        <v>30.047657188626353</v>
+        <v>30.029244321927248</v>
       </c>
       <c r="M4">
         <v>40</v>
@@ -590,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.105049255794201</v>
+        <v>11.141239101872866</v>
       </c>
       <c r="P4">
-        <v>1.4463707327313165E-2</v>
+        <v>1.5376489030264019E-2</v>
       </c>
       <c r="Q4">
-        <v>1.4627831678389089E-2</v>
+        <v>1.5269253535713545E-2</v>
       </c>
       <c r="R4">
-        <v>1.4606481290535087</v>
+        <v>0.3153986472398807</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -610,16 +610,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30484.95053411361</v>
+        <v>30653.911403578168</v>
       </c>
       <c r="D5">
-        <v>38019.301346671884</v>
+        <v>39821.624078848217</v>
       </c>
       <c r="E5">
-        <v>30499.971421754177</v>
+        <v>31143.31574282272</v>
       </c>
       <c r="F5">
-        <v>30499.971421754177</v>
+        <v>31020.111972763196</v>
       </c>
       <c r="G5">
         <v>60000</v>
@@ -637,7 +637,7 @@
         <v>35.047657188626353</v>
       </c>
       <c r="L5">
-        <v>35.047657188626353</v>
+        <v>35.042217294900226</v>
       </c>
       <c r="M5">
         <v>45</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.021150707967598</v>
+        <v>13.07890057733656</v>
       </c>
       <c r="P5">
-        <v>1.7560736676558691E-2</v>
+        <v>1.9141677999400961E-2</v>
       </c>
       <c r="Q5">
-        <v>1.7359919013023851E-2</v>
+        <v>1.8657838274652002E-2</v>
       </c>
       <c r="R5">
-        <v>1.3893174674105073</v>
+        <v>0.2080766816274878</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -666,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36108.653193873208</v>
+        <v>36296.511994511246</v>
       </c>
       <c r="D6">
-        <v>43643.004006431482</v>
+        <v>45464.224669781288</v>
       </c>
       <c r="E6">
-        <v>36123.674081513775</v>
+        <v>36785.916333755798</v>
       </c>
       <c r="F6">
-        <v>36123.674081513775</v>
+        <v>36473.054073267122</v>
       </c>
       <c r="G6">
         <v>72000</v>
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.537445240920041</v>
+        <v>13.023724075392526</v>
       </c>
       <c r="P6">
-        <v>2.1133072422074354E-2</v>
+        <v>2.1469854452705023E-2</v>
       </c>
       <c r="Q6">
-        <v>2.1081019118353569E-2</v>
+        <v>2.2541924953927137E-2</v>
       </c>
       <c r="R6">
-        <v>0.87519921766444508</v>
+        <v>0.13485645661499357</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,16 +722,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>43250.826101225575</v>
+        <v>43452.204522691391</v>
       </c>
       <c r="D7">
-        <v>50747.766999544096</v>
+        <v>55004.535550839893</v>
       </c>
       <c r="E7">
-        <v>43227.306619564028</v>
+        <v>45118.620898540736</v>
       </c>
       <c r="F7">
-        <v>43903.529384666501</v>
+        <v>44104.757740425368</v>
       </c>
       <c r="G7">
         <v>84000</v>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.1455370549833646</v>
+        <v>10.622044375014756</v>
       </c>
       <c r="P7">
-        <v>2.6902171362320291E-2</v>
+        <v>2.6266153946365754E-2</v>
       </c>
       <c r="Q7">
-        <v>2.4886883619906208E-2</v>
+        <v>2.5322936705173785E-2</v>
       </c>
       <c r="R7">
-        <v>0.92245536855872368</v>
+        <v>0.87471082683117407</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>50314.148862493443</v>
+        <v>50546.618019861751</v>
       </c>
       <c r="D8">
-        <v>62659.036121223719</v>
+        <v>69383.614656866615</v>
       </c>
       <c r="E8">
-        <v>50276.981427243401</v>
+        <v>52215.720319221444</v>
       </c>
       <c r="F8">
-        <v>51028.355335040673</v>
+        <v>51717.348890623864</v>
       </c>
       <c r="G8">
         <v>96000</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.207010300011918</v>
+        <v>18.145465943912708</v>
       </c>
       <c r="P8">
-        <v>2.8927699098908959E-2</v>
+        <v>2.8420534942984566E-2</v>
       </c>
       <c r="Q8">
-        <v>2.9367165515568061E-2</v>
+        <v>2.8869103576687743E-2</v>
       </c>
       <c r="R8">
-        <v>4.7431906172071159</v>
+        <v>4.4307353994038614</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>53457.510894370018</v>
+        <v>53755.358450139349</v>
       </c>
       <c r="D9">
-        <v>65736.409883952641</v>
+        <v>72477.823865821629</v>
       </c>
       <c r="E9">
-        <v>53435.364346760543</v>
+        <v>55749.287937245586</v>
       </c>
       <c r="F9">
-        <v>53727.274363764751</v>
+        <v>54774.9327272722</v>
       </c>
       <c r="G9">
         <v>108000</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>55.029244321927251</v>
+        <v>55.047657188626353</v>
       </c>
       <c r="J9">
         <v>115</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.544679796804383</v>
+        <v>27.766133324155266</v>
       </c>
       <c r="P9">
-        <v>3.3966629565650733E-2</v>
+        <v>3.1925172949234942E-2</v>
       </c>
       <c r="Q9">
-        <v>3.3698967495698492E-2</v>
+        <v>3.2136515051226992E-2</v>
       </c>
       <c r="R9">
-        <v>0.19690968353582447</v>
+        <v>0.18635708509463603</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -890,16 +890,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>59359.252386211381</v>
+        <v>59726.204735787484</v>
       </c>
       <c r="D10">
-        <v>77736.409883952641</v>
+        <v>87477.823865821629</v>
       </c>
       <c r="E10">
-        <v>59385.625283790883</v>
+        <v>62895.591850531062</v>
       </c>
       <c r="F10">
-        <v>59536.048269731713</v>
+        <v>60377.114926591887</v>
       </c>
       <c r="G10">
         <v>120000</v>
@@ -926,72 +926,72 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>131.26149474901632</v>
+        <v>160.7193877507483</v>
       </c>
       <c r="P10">
-        <v>3.5259144385908971E-2</v>
+        <v>3.6029988391828825E-2</v>
       </c>
       <c r="Q10">
-        <v>3.6748494649745264E-2</v>
+        <v>3.563005973045491E-2</v>
       </c>
       <c r="R10">
-        <v>0.10929970670950018</v>
+        <v>0.10741697000279039</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>64176.78174056342</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>86707.112521339062</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>64099.551779437606</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>64099.551779437606</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>132000</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>70.252955423154276</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>112.44956333535953</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>3.8373524836394758E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.9293986534976552E-2</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>6.9721122291983759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">

--- a/Delay Model/data.xlsx
+++ b/Delay Model/data.xlsx
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:R20"/>
@@ -386,34 +386,34 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>3437.9810620581961</v>
+        <v>343.79810620581958</v>
       </c>
       <c r="D1">
-        <v>3437.9810620581961</v>
+        <v>343.79810620581958</v>
       </c>
       <c r="E1">
-        <v>3437.9810620581961</v>
+        <v>343.79810620581958</v>
       </c>
       <c r="F1">
-        <v>3437.9810620581961</v>
+        <v>343.79810620581958</v>
       </c>
       <c r="G1">
-        <v>12000</v>
+        <v>1200</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1">
-        <v>10.016292735042736</v>
+        <v>10.044217687074831</v>
       </c>
       <c r="J1">
-        <v>10.016292735042736</v>
+        <v>10.044217687074831</v>
       </c>
       <c r="K1">
-        <v>10.016292735042736</v>
+        <v>10.044217687074831</v>
       </c>
       <c r="L1">
-        <v>10.016292735042736</v>
+        <v>10.044217687074831</v>
       </c>
       <c r="M1">
         <v>25</v>
@@ -422,16 +422,16 @@
         <v>0</v>
       </c>
       <c r="O1">
-        <v>2.1722486486763244</v>
+        <v>0.89094662203925501</v>
       </c>
       <c r="P1">
-        <v>4.2911264477147317E-3</v>
+        <v>3.8749844622310613E-3</v>
       </c>
       <c r="Q1">
-        <v>4.0177754921099425E-3</v>
+        <v>3.9543444170840646E-3</v>
       </c>
       <c r="R1">
-        <v>3.6928380058521566</v>
+        <v>3.9847515108969181E-2</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -442,34 +442,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7963.3709603826101</v>
+        <v>868.77265168327642</v>
       </c>
       <c r="D2">
-        <v>16639.936190263325</v>
+        <v>2754.4103511037797</v>
       </c>
       <c r="E2">
-        <v>7963.3709603826101</v>
+        <v>868.77265168327642</v>
       </c>
       <c r="F2">
-        <v>7963.3709603826101</v>
+        <v>868.77265168327642</v>
       </c>
       <c r="G2">
-        <v>24000</v>
+        <v>2400</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.047657188626353</v>
+        <v>15.113453031485818</v>
       </c>
       <c r="J2">
-        <v>40.016292735042732</v>
+        <v>35.044217687074834</v>
       </c>
       <c r="K2">
-        <v>20.047657188626353</v>
+        <v>15.113453031485818</v>
       </c>
       <c r="L2">
-        <v>20.047657188626353</v>
+        <v>15.113453031485818</v>
       </c>
       <c r="M2">
         <v>30</v>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.7413431515914519</v>
+        <v>2.6934461477284137</v>
       </c>
       <c r="P2">
-        <v>8.793026108856258E-3</v>
+        <v>8.2383597577331148E-3</v>
       </c>
       <c r="Q2">
-        <v>7.9652932464109524E-3</v>
+        <v>8.0415243141550574E-3</v>
       </c>
       <c r="R2">
-        <v>2.0414773808484235</v>
+        <v>4.5835920591120731E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -498,34 +498,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>15719.502686049842</v>
+        <v>1669.21927004965</v>
       </c>
       <c r="D3">
-        <v>24396.067915930555</v>
+        <v>3554.8569694701537</v>
       </c>
       <c r="E3">
-        <v>15719.502686049842</v>
+        <v>1669.21927004965</v>
       </c>
       <c r="F3">
-        <v>15719.502686049842</v>
+        <v>1669.21927004965</v>
       </c>
       <c r="G3">
-        <v>36000</v>
+        <v>3600</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.047657188626353</v>
+        <v>20.113453031485818</v>
       </c>
       <c r="J3">
-        <v>45.01629273504274</v>
+        <v>40.044217687074834</v>
       </c>
       <c r="K3">
-        <v>25.047657188626353</v>
+        <v>20.113453031485818</v>
       </c>
       <c r="L3">
-        <v>25.047657188626353</v>
+        <v>20.113453031485818</v>
       </c>
       <c r="M3">
         <v>35</v>
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.4478216830169988</v>
+        <v>8.0354474465010082</v>
       </c>
       <c r="P3">
-        <v>1.1140260329096346E-2</v>
+        <v>1.0863211597817403E-2</v>
       </c>
       <c r="Q3">
-        <v>1.151572678216432E-2</v>
+        <v>1.0961060431041177E-2</v>
       </c>
       <c r="R3">
-        <v>1.4896000059164411</v>
+        <v>5.1537606236384009E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -554,34 +554,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>23997.701653556047</v>
+        <v>2546.7583090304743</v>
       </c>
       <c r="D4">
-        <v>33173.201411883587</v>
+        <v>4432.3960084509781</v>
       </c>
       <c r="E4">
-        <v>24494.893075858083</v>
+        <v>2546.7583090304743</v>
       </c>
       <c r="F4">
-        <v>24341.823999796783</v>
+        <v>2546.7583090304743</v>
       </c>
       <c r="G4">
-        <v>48000</v>
+        <v>4800</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.047657188626353</v>
+        <v>25.113453031485818</v>
       </c>
       <c r="J4">
-        <v>50.030818619582661</v>
+        <v>45.044217687074834</v>
       </c>
       <c r="K4">
-        <v>30.047657188626353</v>
+        <v>25.113453031485818</v>
       </c>
       <c r="L4">
-        <v>30.029244321927248</v>
+        <v>25.113453031485818</v>
       </c>
       <c r="M4">
         <v>40</v>
@@ -590,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.141239101872866</v>
+        <v>8.8892439385634479</v>
       </c>
       <c r="P4">
-        <v>1.5376489030264019E-2</v>
+        <v>1.5275226865648717E-2</v>
       </c>
       <c r="Q4">
-        <v>1.5269253535713545E-2</v>
+        <v>1.5194160245099949E-2</v>
       </c>
       <c r="R4">
-        <v>0.3153986472398807</v>
+        <v>6.6479179958510951E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -610,34 +610,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>30653.911403578168</v>
+        <v>3211.6005757269377</v>
       </c>
       <c r="D5">
-        <v>39821.624078848217</v>
+        <v>5097.2382751474415</v>
       </c>
       <c r="E5">
-        <v>31143.31574282272</v>
+        <v>3211.6005757269377</v>
       </c>
       <c r="F5">
-        <v>31020.111972763196</v>
+        <v>3211.6005757269377</v>
       </c>
       <c r="G5">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.047657188626353</v>
+        <v>30.113453031485818</v>
       </c>
       <c r="J5">
-        <v>55.030818619582661</v>
+        <v>50.044217687074834</v>
       </c>
       <c r="K5">
-        <v>35.047657188626353</v>
+        <v>30.113453031485818</v>
       </c>
       <c r="L5">
-        <v>35.042217294900226</v>
+        <v>30.113453031485818</v>
       </c>
       <c r="M5">
         <v>45</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.07890057733656</v>
+        <v>11.350058467522294</v>
       </c>
       <c r="P5">
-        <v>1.9141677999400961E-2</v>
+        <v>1.8517607243316768E-2</v>
       </c>
       <c r="Q5">
-        <v>1.8657838274652002E-2</v>
+        <v>1.8606069415213845E-2</v>
       </c>
       <c r="R5">
-        <v>0.2080766816274878</v>
+        <v>7.6769805215399695E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -666,34 +666,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>36296.511994511246</v>
+        <v>3812.4492260940933</v>
       </c>
       <c r="D6">
-        <v>45464.224669781288</v>
+        <v>5698.0869255145972</v>
       </c>
       <c r="E6">
-        <v>36785.916333755798</v>
+        <v>3812.4492260940929</v>
       </c>
       <c r="F6">
-        <v>36473.054073267122</v>
+        <v>3812.4492260940929</v>
       </c>
       <c r="G6">
-        <v>72000</v>
+        <v>7200</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40.047657188626353</v>
+        <v>35.113453031485818</v>
       </c>
       <c r="J6">
-        <v>60.030818619582668</v>
+        <v>55.044217687074834</v>
       </c>
       <c r="K6">
-        <v>40.047657188626353</v>
+        <v>35.113453031485818</v>
       </c>
       <c r="L6">
-        <v>40.047657188626353</v>
+        <v>35.113453031485818</v>
       </c>
       <c r="M6">
         <v>50</v>
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.023724075392526</v>
+        <v>10.326935707343242</v>
       </c>
       <c r="P6">
-        <v>2.1469854452705023E-2</v>
+        <v>2.2929338066865455E-2</v>
       </c>
       <c r="Q6">
-        <v>2.2541924953927137E-2</v>
+        <v>2.2543062731057648E-2</v>
       </c>
       <c r="R6">
-        <v>0.13485645661499357</v>
+        <v>6.3926576966213997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,34 +722,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>43452.204522691391</v>
+        <v>4577.3448738785937</v>
       </c>
       <c r="D7">
-        <v>55004.535550839893</v>
+        <v>11229.981301801949</v>
       </c>
       <c r="E7">
-        <v>45118.620898540736</v>
+        <v>5753.825392217047</v>
       </c>
       <c r="F7">
-        <v>44104.757740425368</v>
+        <v>5230.0481573195266</v>
       </c>
       <c r="G7">
-        <v>84000</v>
+        <v>8400</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.047657188626353</v>
+        <v>40.113453031485818</v>
       </c>
       <c r="J7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L7">
-        <v>45.03161440787769</v>
+        <v>40.05252525252525</v>
       </c>
       <c r="M7">
         <v>55</v>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.622044375014756</v>
+        <v>7.4795355138642412</v>
       </c>
       <c r="P7">
-        <v>2.6266153946365754E-2</v>
+        <v>2.6309673921607723E-2</v>
       </c>
       <c r="Q7">
-        <v>2.5322936705173785E-2</v>
+        <v>2.5695843159698115E-2</v>
       </c>
       <c r="R7">
-        <v>0.87471082683117407</v>
+        <v>7.4741148591702139E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -778,34 +778,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>50546.618019861751</v>
+        <v>5330.4654515768852</v>
       </c>
       <c r="D8">
-        <v>69383.614656866615</v>
+        <v>17228.441422062297</v>
       </c>
       <c r="E8">
-        <v>52215.720319221444</v>
+        <v>6528.4348265498493</v>
       </c>
       <c r="F8">
-        <v>51717.348890623864</v>
+        <v>5894.8883924386982</v>
       </c>
       <c r="G8">
-        <v>96000</v>
+        <v>9600</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>50.047657188626353</v>
+        <v>45.503019503629069</v>
       </c>
       <c r="J8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L8">
-        <v>50.043859649122808</v>
+        <v>45.503019503629069</v>
       </c>
       <c r="M8">
         <v>60</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.145465943912708</v>
+        <v>10.096488620664251</v>
       </c>
       <c r="P8">
-        <v>2.8420534942984566E-2</v>
+        <v>2.9437707697659622E-2</v>
       </c>
       <c r="Q8">
-        <v>2.8869103576687743E-2</v>
+        <v>3.0112409536051463E-2</v>
       </c>
       <c r="R8">
-        <v>4.4307353994038614</v>
+        <v>0.31030197458376557</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>53755.358450139349</v>
+        <v>5769.7233578345222</v>
       </c>
       <c r="D9">
-        <v>72477.823865821629</v>
+        <v>17601.276792215962</v>
       </c>
       <c r="E9">
-        <v>55749.287937245586</v>
+        <v>6982.2793534917309</v>
       </c>
       <c r="F9">
-        <v>54774.9327272722</v>
+        <v>6503.123329619636</v>
       </c>
       <c r="G9">
-        <v>108000</v>
+        <v>10800</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>55.047657188626353</v>
+        <v>50.503019503629069</v>
       </c>
       <c r="J9">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L9">
-        <v>55.127083333333331</v>
+        <v>50.093262032085562</v>
       </c>
       <c r="M9">
         <v>65</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>27.766133324155266</v>
+        <v>13.729220989598726</v>
       </c>
       <c r="P9">
-        <v>3.1925172949234942E-2</v>
+        <v>3.2495483735902587E-2</v>
       </c>
       <c r="Q9">
-        <v>3.2136515051226992E-2</v>
+        <v>3.2472159304727154E-2</v>
       </c>
       <c r="R9">
-        <v>0.18635708509463603</v>
+        <v>0.30228633469932958</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -890,34 +890,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>59726.204735787484</v>
+        <v>6435.4733004889122</v>
       </c>
       <c r="D10">
-        <v>87477.823865821629</v>
+        <v>18804.22517666284</v>
       </c>
       <c r="E10">
-        <v>62895.591850531062</v>
+        <v>7716.4492282580159</v>
       </c>
       <c r="F10">
-        <v>60377.114926591887</v>
+        <v>6666.8722141988455</v>
       </c>
       <c r="G10">
-        <v>120000</v>
+        <v>12000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>65.047657188626346</v>
+        <v>55.012284935195325</v>
       </c>
       <c r="J10">
-        <v>145</v>
+        <v>115.01228493519532</v>
       </c>
       <c r="K10">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="L10">
-        <v>65.030818619582675</v>
+        <v>55.015392315203343</v>
       </c>
       <c r="M10">
         <v>70</v>
@@ -926,575 +926,1135 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>160.7193877507483</v>
+        <v>18.29904509209879</v>
       </c>
       <c r="P10">
-        <v>3.6029988391828825E-2</v>
+        <v>3.6417685949049775E-2</v>
       </c>
       <c r="Q10">
-        <v>3.563005973045491E-2</v>
+        <v>3.6447552598725633E-2</v>
       </c>
       <c r="R10">
-        <v>0.10741697000279039</v>
+        <v>3.9806555132270861E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>6853.5632112392314</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>13279.825564241855</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7980.2627728327734</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>7093.8670031437414</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>13200</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>60.025491386989188</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>60.02275896813115</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.995774011293008</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>4.0214163789275711E-2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.9552830832167346E-2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>4.7818212796750054E-2</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7447.7028306666007</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>19030.645882760437</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8587.567887156667</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8265.2264823202713</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>65.025491386989188</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>66.00422340410222</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>23.370124589440234</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.9101833044290536E-2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.5220667607797985E-2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.40640147546938282</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8295.7489631252392</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19878.692015219072</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>9435.6140196153065</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>9187.8651891228365</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>70.025491386989188</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>70.012737843551804</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>21.679828093253352</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.7611137358997413E-2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4.6049538247373796E-2</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.36956110531634895</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>9059.1843298730018</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25909.386471507227</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>10215.284047356785</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10215.284047356785</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>75.025491386989188</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>21.443000352426466</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.914343870951042E-2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5.0158904798489716E-2</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.94802605623406577</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>9743.3354634555908</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>26419.765815622792</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10725.471077002452</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10788.666605959228</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>80.025491386989188</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>80.037486717025132</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>80.714144020398066</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.3728111656896477E-2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>5.3355489646654777E-2</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.0309907734808044</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>10183.1144986172</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>26812.07330103992</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>11115.925107730876</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>11115.925107730876</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>19200</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>85.025491386989188</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>142.82053300876345</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.7469407306292734E-2</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>5.6827985448968277E-2</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.65562188480177219</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>10893.271592286801</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>32476.465963325805</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>11660.464512553093</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>11660.464512553093</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>90.075738063512659</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>366.52261915157663</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.9416428420876279E-2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>6.0579521092539113E-2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.90712040839372321</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11632.318836256307</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>38476.465963325805</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>12469.621557105282</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>12469.621557105282</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>95.129075811301533</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>268.93327989573413</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.2284764566889493E-2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>6.4149581283793763E-2</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.77626807394527353</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>12293.345132153852</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>38843.283778011471</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>12812.925002355727</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>12812.925002355727</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>22800</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>100.25423466302327</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>326.09214885424421</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.7049490745178603E-2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>6.704152630526504E-2</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.54947182963380359</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>12653.199831361915</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>39662.404102378925</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>13631.540782971653</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>13713.424440463883</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>105.11544139733194</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>105.04579344359385</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>139.58068987409644</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.9535533775340788E-2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>7.0711141995439222E-2</v>
       </c>
       <c r="R20">
+        <v>0.12092551342904125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
         <v>0</v>
       </c>
     </row>

--- a/Delay Model/data.xlsx
+++ b/Delay Model/data.xlsx
@@ -386,52 +386,52 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>343.79810620581958</v>
+        <v>597.76666610869222</v>
       </c>
       <c r="D1">
-        <v>343.79810620581958</v>
+        <v>597.76666610869222</v>
       </c>
       <c r="E1">
-        <v>343.79810620581958</v>
+        <v>597.76666610869222</v>
       </c>
       <c r="F1">
-        <v>343.79810620581958</v>
+        <v>597.76666610869222</v>
       </c>
       <c r="G1">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1">
-        <v>10.044217687074831</v>
+        <v>15.00925925925926</v>
       </c>
       <c r="J1">
-        <v>10.044217687074831</v>
+        <v>15.00925925925926</v>
       </c>
       <c r="K1">
-        <v>10.044217687074831</v>
+        <v>15.00925925925926</v>
       </c>
       <c r="L1">
-        <v>10.044217687074831</v>
+        <v>15.00925925925926</v>
       </c>
       <c r="M1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N1">
         <v>0</v>
       </c>
       <c r="O1">
-        <v>0.89094662203925501</v>
+        <v>1.5408032362923494</v>
       </c>
       <c r="P1">
-        <v>3.8749844622310613E-3</v>
+        <v>4.291125227128695E-3</v>
       </c>
       <c r="Q1">
-        <v>3.9543444170840646E-3</v>
+        <v>4.8563158559438028E-3</v>
       </c>
       <c r="R1">
-        <v>3.9847515108969181E-2</v>
+        <v>1.1559243469445573E-2</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -442,52 +442,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>868.77265168327642</v>
+        <v>1213.8314659213013</v>
       </c>
       <c r="D2">
-        <v>2754.4103511037797</v>
+        <v>3098.6925920346184</v>
       </c>
       <c r="E2">
-        <v>868.77265168327642</v>
+        <v>1213.8314659213013</v>
       </c>
       <c r="F2">
-        <v>868.77265168327642</v>
+        <v>1213.8314659213013</v>
       </c>
       <c r="G2">
-        <v>2400</v>
+        <v>5500</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.113453031485818</v>
+        <v>20.00925925925926</v>
       </c>
       <c r="J2">
-        <v>35.044217687074834</v>
+        <v>40.00925925925926</v>
       </c>
       <c r="K2">
-        <v>15.113453031485818</v>
+        <v>20.00925925925926</v>
       </c>
       <c r="L2">
-        <v>15.113453031485818</v>
+        <v>20.00925925925926</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.6934461477284137</v>
+        <v>12.496017781175938</v>
       </c>
       <c r="P2">
-        <v>8.2383597577331148E-3</v>
+        <v>8.2127574362247657E-3</v>
       </c>
       <c r="Q2">
-        <v>8.0415243141550574E-3</v>
+        <v>9.400027534198727E-3</v>
       </c>
       <c r="R2">
-        <v>4.5835920591120731E-2</v>
+        <v>1.7778900384227227E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -498,52 +498,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1669.21927004965</v>
+        <v>1831.0968058474652</v>
       </c>
       <c r="D3">
-        <v>3554.8569694701537</v>
+        <v>5697.9344124444942</v>
       </c>
       <c r="E3">
-        <v>1669.21927004965</v>
+        <v>3312.7986721435482</v>
       </c>
       <c r="F3">
-        <v>1669.21927004965</v>
+        <v>1853.4138317015231</v>
       </c>
       <c r="G3">
-        <v>3600</v>
+        <v>8500</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.113453031485818</v>
+        <v>25.069505850903518</v>
       </c>
       <c r="J3">
-        <v>40.044217687074834</v>
+        <v>65</v>
       </c>
       <c r="K3">
-        <v>20.113453031485818</v>
+        <v>45</v>
       </c>
       <c r="L3">
-        <v>20.113453031485818</v>
+        <v>25.02183501462946</v>
       </c>
       <c r="M3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.0354474465010082</v>
+        <v>10.812115502550327</v>
       </c>
       <c r="P3">
-        <v>1.0863211597817403E-2</v>
+        <v>1.1727065548459622E-2</v>
       </c>
       <c r="Q3">
-        <v>1.0961060431041177E-2</v>
+        <v>1.2421393844855031E-2</v>
       </c>
       <c r="R3">
-        <v>5.1537606236384009E-2</v>
+        <v>1.4140859044244726E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -554,52 +554,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2546.7583090304743</v>
+        <v>2437.2171318657583</v>
       </c>
       <c r="D4">
-        <v>4432.3960084509781</v>
+        <v>6354.4662857630283</v>
       </c>
       <c r="E4">
-        <v>2546.7583090304743</v>
+        <v>3930.9541007312246</v>
       </c>
       <c r="F4">
-        <v>2546.7583090304743</v>
+        <v>2472.7581905799711</v>
       </c>
       <c r="G4">
-        <v>4800</v>
+        <v>11500</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.113453031485818</v>
+        <v>31.002788310930264</v>
       </c>
       <c r="J4">
-        <v>45.044217687074834</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>25.113453031485818</v>
+        <v>50</v>
       </c>
       <c r="L4">
-        <v>25.113453031485818</v>
+        <v>30.02183501462946</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.8892439385634479</v>
+        <v>11.634779902765594</v>
       </c>
       <c r="P4">
-        <v>1.5275226865648717E-2</v>
+        <v>1.6023595215420971E-2</v>
       </c>
       <c r="Q4">
-        <v>1.5194160245099949E-2</v>
+        <v>1.6244323915954702E-2</v>
       </c>
       <c r="R4">
-        <v>6.6479179958510951E-2</v>
+        <v>2.1926665733689683E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -610,52 +610,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3211.6005757269377</v>
+        <v>3048.1626989251881</v>
       </c>
       <c r="D5">
-        <v>5097.2382751474415</v>
+        <v>9354.4662857630283</v>
       </c>
       <c r="E5">
-        <v>3211.6005757269377</v>
+        <v>4547.7147772742701</v>
       </c>
       <c r="F5">
-        <v>3211.6005757269377</v>
+        <v>3090.3289270581863</v>
       </c>
       <c r="G5">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.113453031485818</v>
+        <v>35.069505850903511</v>
       </c>
       <c r="J5">
-        <v>50.044217687074834</v>
+        <v>95</v>
       </c>
       <c r="K5">
-        <v>30.113453031485818</v>
+        <v>55</v>
       </c>
       <c r="L5">
-        <v>30.113453031485818</v>
+        <v>36.002788310930264</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.350058467522294</v>
+        <v>13.76366327722956</v>
       </c>
       <c r="P5">
-        <v>1.8517607243316768E-2</v>
+        <v>2.1713048138198923E-2</v>
       </c>
       <c r="Q5">
-        <v>1.8606069415213845E-2</v>
+        <v>1.9913369673924545E-2</v>
       </c>
       <c r="R5">
-        <v>7.6769805215399695E-2</v>
+        <v>2.4592761236399301E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -666,52 +666,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3812.4492260940933</v>
+        <v>3666.307839312406</v>
       </c>
       <c r="D6">
-        <v>5698.0869255145972</v>
+        <v>12354.466285763028</v>
       </c>
       <c r="E6">
-        <v>3812.4492260940929</v>
+        <v>5165.7702798778246</v>
       </c>
       <c r="F6">
-        <v>3812.4492260940929</v>
+        <v>3768.2711468801372</v>
       </c>
       <c r="G6">
-        <v>7200</v>
+        <v>17500</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.113453031485818</v>
+        <v>40.069505850903511</v>
       </c>
       <c r="J6">
-        <v>55.044217687074834</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>35.113453031485818</v>
+        <v>60</v>
       </c>
       <c r="L6">
-        <v>35.113453031485818</v>
+        <v>40.336128811583919</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.326935707343242</v>
+        <v>12.819705896073192</v>
       </c>
       <c r="P6">
-        <v>2.2929338066865455E-2</v>
+        <v>2.4382556971329163E-2</v>
       </c>
       <c r="Q6">
-        <v>2.2543062731057648E-2</v>
+        <v>2.4644814525313828E-2</v>
       </c>
       <c r="R6">
-        <v>6.3926576966213997E-2</v>
+        <v>4.0480107679197005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,52 +722,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4577.3448738785937</v>
+        <v>4286.9690472345419</v>
       </c>
       <c r="D7">
-        <v>11229.981301801949</v>
+        <v>15354.466285763028</v>
       </c>
       <c r="E7">
-        <v>5753.825392217047</v>
+        <v>5787.0770443659949</v>
       </c>
       <c r="F7">
-        <v>5230.0481573195266</v>
+        <v>4398.2862917699158</v>
       </c>
       <c r="G7">
-        <v>8400</v>
+        <v>20500</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>40.113453031485818</v>
+        <v>46.002874884491249</v>
       </c>
       <c r="J7">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L7">
-        <v>40.05252525252525</v>
+        <v>45.252799074315213</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.4795355138642412</v>
+        <v>32.385090231389668</v>
       </c>
       <c r="P7">
-        <v>2.6309673921607723E-2</v>
+        <v>2.6646732817010219E-2</v>
       </c>
       <c r="Q7">
-        <v>2.5695843159698115E-2</v>
+        <v>2.7966269468783386E-2</v>
       </c>
       <c r="R7">
-        <v>7.4741148591702139E-2</v>
+        <v>7.477582952462547E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -778,52 +778,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5330.4654515768852</v>
+        <v>4926.6813744271049</v>
       </c>
       <c r="D8">
-        <v>17228.441422062297</v>
+        <v>18354.466285763028</v>
       </c>
       <c r="E8">
-        <v>6528.4348265498493</v>
+        <v>6406.4214032444424</v>
       </c>
       <c r="F8">
-        <v>5894.8883924386982</v>
+        <v>5026.7512794016639</v>
       </c>
       <c r="G8">
-        <v>9600</v>
+        <v>23500</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>45.503019503629069</v>
+        <v>51.002874884491249</v>
       </c>
       <c r="J8">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="K8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L8">
-        <v>45.503019503629069</v>
+        <v>50.145667055271574</v>
       </c>
       <c r="M8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.096488620664251</v>
+        <v>41.898456833316835</v>
       </c>
       <c r="P8">
-        <v>2.9437707697659622E-2</v>
+        <v>2.8650357773916921E-2</v>
       </c>
       <c r="Q8">
-        <v>3.0112409536051463E-2</v>
+        <v>2.9517059256553881E-2</v>
       </c>
       <c r="R8">
-        <v>0.31030197458376557</v>
+        <v>6.0917139128485724E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -834,52 +834,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5769.7233578345222</v>
+        <v>5583.44679105656</v>
       </c>
       <c r="D9">
-        <v>17601.276792215962</v>
+        <v>21354.466285763028</v>
       </c>
       <c r="E9">
-        <v>6982.2793534917309</v>
+        <v>7026.9211703270275</v>
       </c>
       <c r="F9">
-        <v>6503.123329619636</v>
+        <v>5701.5529060626186</v>
       </c>
       <c r="G9">
-        <v>10800</v>
+        <v>26500</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>50.503019503629069</v>
+        <v>56.002874884491249</v>
       </c>
       <c r="J9">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="K9">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L9">
-        <v>50.093262032085562</v>
+        <v>55.093284387821207</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.729220989598726</v>
+        <v>784.25220614922853</v>
       </c>
       <c r="P9">
-        <v>3.2495483735902587E-2</v>
+        <v>3.0473645106933952E-2</v>
       </c>
       <c r="Q9">
-        <v>3.2472159304727154E-2</v>
+        <v>3.2757163158331881E-2</v>
       </c>
       <c r="R9">
-        <v>0.30228633469932958</v>
+        <v>0.18171234271657866</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -890,612 +890,612 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6435.4733004889122</v>
+        <v>6145.8413918639462</v>
       </c>
       <c r="D10">
-        <v>18804.22517666284</v>
+        <v>22357.117835452584</v>
       </c>
       <c r="E10">
-        <v>7716.4492282580159</v>
+        <v>7680.2126479026692</v>
       </c>
       <c r="F10">
-        <v>6666.8722141988455</v>
+        <v>6351.0003111336837</v>
       </c>
       <c r="G10">
-        <v>12000</v>
+        <v>29500</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>55.012284935195325</v>
+        <v>60.024021102492959</v>
       </c>
       <c r="J10">
-        <v>115.01228493519532</v>
+        <v>200.02651549689557</v>
       </c>
       <c r="K10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L10">
-        <v>55.015392315203343</v>
+        <v>60.021161769784591</v>
       </c>
       <c r="M10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.29904509209879</v>
+        <v>177.06416776746573</v>
       </c>
       <c r="P10">
-        <v>3.6417685949049775E-2</v>
+        <v>3.4707312605315468E-2</v>
       </c>
       <c r="Q10">
-        <v>3.6447552598725633E-2</v>
+        <v>3.5760893928481627E-2</v>
       </c>
       <c r="R10">
-        <v>3.9806555132270861E-2</v>
+        <v>5.8445603459751715E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6853.5632112392314</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>13279.825564241855</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7980.2627728327734</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>7093.8670031437414</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>13200</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>60.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>60.02275896813115</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.995774011293008</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>4.0214163789275711E-2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.9552830832167346E-2</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>4.7818212796750054E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7447.7028306666007</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>19030.645882760437</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8587.567887156667</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>8265.2264823202713</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>65.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>66.00422340410222</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.370124589440234</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>5.9101833044290536E-2</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.5220667607797985E-2</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0.40640147546938282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8295.7489631252392</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>19878.692015219072</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>9435.6140196153065</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>9187.8651891228365</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>70.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>70.012737843551804</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.679828093253352</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>4.7611137358997413E-2</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>4.6049538247373796E-2</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.36956110531634895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9059.1843298730018</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>25909.386471507227</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>10215.284047356785</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>10215.284047356785</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>75.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.443000352426466</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>4.914343870951042E-2</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>5.0158904798489716E-2</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.94802605623406577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9743.3354634555908</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>26419.765815622792</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>10725.471077002452</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>10788.666605959228</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>80.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>80.037486717025132</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>80.714144020398066</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>5.3728111656896477E-2</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>5.3355489646654777E-2</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.0309907734808044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10183.1144986172</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>26812.07330103992</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>11115.925107730876</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11115.925107730876</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>85.025491386989188</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>142.82053300876345</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>5.7469407306292734E-2</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>5.6827985448968277E-2</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.65562188480177219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10893.271592286801</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>32476.465963325805</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>11660.464512553093</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>11660.464512553093</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>20400</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>90.075738063512659</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>366.52261915157663</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>5.9416428420876279E-2</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>6.0579521092539113E-2</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>0.90712040839372321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11632.318836256307</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>38476.465963325805</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>12469.621557105282</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>12469.621557105282</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>95.129075811301533</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>268.93327989573413</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>6.2284764566889493E-2</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>6.4149581283793763E-2</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0.77626807394527353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12293.345132153852</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>38843.283778011471</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>12812.925002355727</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>12812.925002355727</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>22800</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>100.25423466302327</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>326.09214885424421</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>6.7049490745178603E-2</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>6.704152630526504E-2</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.54947182963380359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12653.199831361915</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>39662.404102378925</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>13631.540782971653</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>13713.424440463883</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>105.11544139733194</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>105.04579344359385</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>139.58068987409644</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>6.9535533775340788E-2</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>7.0711141995439222E-2</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>0.12092551342904125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">

--- a/Delay Model/data.xlsx
+++ b/Delay Model/data.xlsx
@@ -386,34 +386,34 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>597.76666610869222</v>
+        <v>306.50408290847901</v>
       </c>
       <c r="D1">
-        <v>597.76666610869222</v>
+        <v>306.50408290847901</v>
       </c>
       <c r="E1">
-        <v>597.76666610869222</v>
+        <v>306.50408290847901</v>
       </c>
       <c r="F1">
-        <v>597.76666610869222</v>
+        <v>306.50408290848014</v>
       </c>
       <c r="G1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H1">
         <v>0</v>
       </c>
       <c r="I1">
-        <v>15.00925925925926</v>
+        <v>15.044217687074831</v>
       </c>
       <c r="J1">
-        <v>15.00925925925926</v>
+        <v>15.044217687074831</v>
       </c>
       <c r="K1">
-        <v>15.00925925925926</v>
+        <v>15.044217687074831</v>
       </c>
       <c r="L1">
-        <v>15.00925925925926</v>
+        <v>15.044217687074729</v>
       </c>
       <c r="M1">
         <v>20</v>
@@ -422,16 +422,16 @@
         <v>0</v>
       </c>
       <c r="O1">
-        <v>1.5408032362923494</v>
+        <v>18.481891713230183</v>
       </c>
       <c r="P1">
-        <v>4.291125227128695E-3</v>
+        <v>5.359497648784229E-3</v>
       </c>
       <c r="Q1">
-        <v>4.8563158559438028E-3</v>
+        <v>5.6564573953785781E-3</v>
       </c>
       <c r="R1">
-        <v>1.1559243469445573E-2</v>
+        <v>2.5075241180238638E-3</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -442,34 +442,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1213.8314659213013</v>
+        <v>748.71154169204465</v>
       </c>
       <c r="D2">
-        <v>3098.6925920346184</v>
+        <v>2129.795400180607</v>
       </c>
       <c r="E2">
-        <v>1213.8314659213013</v>
+        <v>1914.6285076969839</v>
       </c>
       <c r="F2">
-        <v>1213.8314659213013</v>
+        <v>911.81207739129502</v>
       </c>
       <c r="G2">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.00925925925926</v>
+        <v>20.044217687074831</v>
       </c>
       <c r="J2">
-        <v>40.00925925925926</v>
+        <v>30</v>
       </c>
       <c r="K2">
-        <v>20.00925925925926</v>
+        <v>30</v>
       </c>
       <c r="L2">
-        <v>20.00925925925926</v>
+        <v>20.049259636141919</v>
       </c>
       <c r="M2">
         <v>25</v>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.496017781175938</v>
+        <v>24.795251659163029</v>
       </c>
       <c r="P2">
-        <v>8.2127574362247657E-3</v>
+        <v>9.5018585584140305E-3</v>
       </c>
       <c r="Q2">
-        <v>9.400027534198727E-3</v>
+        <v>9.3371653656188873E-3</v>
       </c>
       <c r="R2">
-        <v>1.7778900384227227E-2</v>
+        <v>2.9640269106970363E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -498,34 +498,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1831.0968058474652</v>
+        <v>1423.7622406159676</v>
       </c>
       <c r="D3">
-        <v>5697.9344124444942</v>
+        <v>5129.7954001806065</v>
       </c>
       <c r="E3">
-        <v>3312.7986721435482</v>
+        <v>2585.5359637645511</v>
       </c>
       <c r="F3">
-        <v>1853.4138317015231</v>
+        <v>1604.0879345672024</v>
       </c>
       <c r="G3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.069505850903518</v>
+        <v>25.044217687074831</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L3">
-        <v>25.02183501462946</v>
+        <v>25.054231228411776</v>
       </c>
       <c r="M3">
         <v>30</v>
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.812115502550327</v>
+        <v>33.439194931886995</v>
       </c>
       <c r="P3">
-        <v>1.1727065548459622E-2</v>
+        <v>1.2132398535908804E-2</v>
       </c>
       <c r="Q3">
-        <v>1.2421393844855031E-2</v>
+        <v>1.2734566910947346E-2</v>
       </c>
       <c r="R3">
-        <v>1.4140859044244726E-2</v>
+        <v>5.2973019329690179E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -554,34 +554,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2437.2171318657583</v>
+        <v>2140.223972604711</v>
       </c>
       <c r="D4">
-        <v>6354.4662857630283</v>
+        <v>5869.7675198705365</v>
       </c>
       <c r="E4">
-        <v>3930.9541007312246</v>
+        <v>3325.5080834544806</v>
       </c>
       <c r="F4">
-        <v>2472.7581905799711</v>
+        <v>2354.4243853174103</v>
       </c>
       <c r="G4">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.002788310930264</v>
+        <v>30.044217687074831</v>
       </c>
       <c r="J4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L4">
-        <v>30.02183501462946</v>
+        <v>30.066287547394531</v>
       </c>
       <c r="M4">
         <v>35</v>
@@ -590,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.634779902765594</v>
+        <v>51.454941194005734</v>
       </c>
       <c r="P4">
-        <v>1.6023595215420971E-2</v>
+        <v>2.9356348282582798E-2</v>
       </c>
       <c r="Q4">
-        <v>1.6244323915954702E-2</v>
+        <v>3.0817822591013611E-2</v>
       </c>
       <c r="R4">
-        <v>2.1926665733689683E-2</v>
+        <v>7.7927192524351267E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -610,34 +610,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3048.1626989251881</v>
+        <v>2717.1177608244061</v>
       </c>
       <c r="D5">
-        <v>9354.4662857630283</v>
+        <v>6433.7129346635647</v>
       </c>
       <c r="E5">
-        <v>4547.7147772742701</v>
+        <v>3889.4534982475088</v>
       </c>
       <c r="F5">
-        <v>3090.3289270581863</v>
+        <v>2960.9831667057238</v>
       </c>
       <c r="G5">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.069505850903511</v>
+        <v>35.044217687074834</v>
       </c>
       <c r="J5">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L5">
-        <v>36.002788310930264</v>
+        <v>35.069828928961428</v>
       </c>
       <c r="M5">
         <v>40</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.76366327722956</v>
+        <v>61.567998946418676</v>
       </c>
       <c r="P5">
-        <v>2.1713048138198923E-2</v>
+        <v>2.0373884836507161E-2</v>
       </c>
       <c r="Q5">
-        <v>1.9913369673924545E-2</v>
+        <v>2.0351698188773103E-2</v>
       </c>
       <c r="R5">
-        <v>2.4592761236399301E-2</v>
+        <v>1.0642245140839701E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -666,34 +666,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3666.307839312406</v>
+        <v>3207.5564041495486</v>
       </c>
       <c r="D6">
-        <v>12354.466285763028</v>
+        <v>6924.1515779887068</v>
       </c>
       <c r="E6">
-        <v>5165.7702798778246</v>
+        <v>4379.8921415726509</v>
       </c>
       <c r="F6">
-        <v>3768.2711468801372</v>
+        <v>3503.3690674977679</v>
       </c>
       <c r="G6">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>40.069505850903511</v>
+        <v>40.044217687074834</v>
       </c>
       <c r="J6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L6">
-        <v>40.336128811583919</v>
+        <v>40.072527122558661</v>
       </c>
       <c r="M6">
         <v>45</v>
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.819705896073192</v>
+        <v>36.736340704989267</v>
       </c>
       <c r="P6">
-        <v>2.4382556971329163E-2</v>
+        <v>2.640979079697852E-2</v>
       </c>
       <c r="Q6">
-        <v>2.4644814525313828E-2</v>
+        <v>2.7914216179868862E-2</v>
       </c>
       <c r="R6">
-        <v>4.0480107679197005E-2</v>
+        <v>1.5177203902119336E-2</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -722,34 +722,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4286.9690472345419</v>
+        <v>3826.5315741711356</v>
       </c>
       <c r="D7">
-        <v>15354.466285763028</v>
+        <v>7543.1267480102942</v>
       </c>
       <c r="E7">
-        <v>5787.0770443659949</v>
+        <v>4995.7402857209872</v>
       </c>
       <c r="F7">
-        <v>4398.2862917699158</v>
+        <v>4168.8188419005755</v>
       </c>
       <c r="G7">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>46.002874884491249</v>
+        <v>45.044217687074827</v>
       </c>
       <c r="J7">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="L7">
-        <v>45.252799074315213</v>
+        <v>45.074852003245766</v>
       </c>
       <c r="M7">
         <v>50</v>
@@ -758,16 +758,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>32.385090231389668</v>
+        <v>71.583105209083556</v>
       </c>
       <c r="P7">
-        <v>2.6646732817010219E-2</v>
+        <v>2.683617265535489E-2</v>
       </c>
       <c r="Q7">
-        <v>2.7966269468783386E-2</v>
+        <v>2.7542732052424204E-2</v>
       </c>
       <c r="R7">
-        <v>7.477582952462547E-2</v>
+        <v>2.1834861652029167E-2</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -778,34 +778,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4926.6813744271049</v>
+        <v>4447.7164724006834</v>
       </c>
       <c r="D8">
-        <v>18354.466285763028</v>
+        <v>8184.9283287885537</v>
       </c>
       <c r="E8">
-        <v>6406.4214032444424</v>
+        <v>5619.3862321498691</v>
       </c>
       <c r="F8">
-        <v>5026.7512794016639</v>
+        <v>4868.3692482874394</v>
       </c>
       <c r="G8">
-        <v>23500</v>
+        <v>23000</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>51.002874884491249</v>
+        <v>50.044217687074827</v>
       </c>
       <c r="J8">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L8">
-        <v>50.145667055271574</v>
+        <v>50.08073183755355</v>
       </c>
       <c r="M8">
         <v>55</v>
@@ -814,16 +814,16 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>41.898456833316835</v>
+        <v>173.50511572896792</v>
       </c>
       <c r="P8">
-        <v>2.8650357773916921E-2</v>
+        <v>3.9251593171973825E-2</v>
       </c>
       <c r="Q8">
-        <v>2.9517059256553881E-2</v>
+        <v>3.3056967346943418E-2</v>
       </c>
       <c r="R8">
-        <v>6.0917139128485724E-2</v>
+        <v>4.7227585228016157E-2</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -834,34 +834,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5583.44679105656</v>
+        <v>4743.8792325366303</v>
       </c>
       <c r="D9">
-        <v>21354.466285763028</v>
+        <v>8481.0910889245006</v>
       </c>
       <c r="E9">
-        <v>7026.9211703270275</v>
+        <v>5915.548992285816</v>
       </c>
       <c r="F9">
-        <v>5701.5529060626186</v>
+        <v>5283.543671113066</v>
       </c>
       <c r="G9">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>56.002874884491249</v>
+        <v>55.052403846153844</v>
       </c>
       <c r="J9">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>55.093284387821207</v>
+        <v>55.081660485062379</v>
       </c>
       <c r="M9">
         <v>60</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>784.25220614922853</v>
+        <v>198.47734032155847</v>
       </c>
       <c r="P9">
-        <v>3.0473645106933952E-2</v>
+        <v>3.7620305675116934E-2</v>
       </c>
       <c r="Q9">
-        <v>3.2757163158331881E-2</v>
+        <v>4.3703429373073602E-2</v>
       </c>
       <c r="R9">
-        <v>0.18171234271657866</v>
+        <v>0.12199893617868557</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -890,34 +890,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6145.8413918639462</v>
+        <v>5324.0519372706467</v>
       </c>
       <c r="D10">
-        <v>22357.117835452584</v>
+        <v>11481.091088924501</v>
       </c>
       <c r="E10">
-        <v>7680.2126479026692</v>
+        <v>6485.1725979249213</v>
       </c>
       <c r="F10">
-        <v>6351.0003111336837</v>
+        <v>5957.3234459801306</v>
       </c>
       <c r="G10">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>60.024021102492959</v>
+        <v>60.015890724937918</v>
       </c>
       <c r="J10">
-        <v>200.02651549689557</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L10">
-        <v>60.021161769784591</v>
+        <v>60.03480390112599</v>
       </c>
       <c r="M10">
         <v>65</v>
@@ -926,301 +926,301 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>177.06416776746573</v>
+        <v>1125.1184610544688</v>
       </c>
       <c r="P10">
-        <v>3.4707312605315468E-2</v>
+        <v>3.804042976105549E-2</v>
       </c>
       <c r="Q10">
-        <v>3.5760893928481627E-2</v>
+        <v>3.5795027232687876E-2</v>
       </c>
       <c r="R10">
-        <v>5.8445603459751715E-2</v>
+        <v>9.8273851784090926E-2</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5811.408529753634</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>14481.091088924501</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>7520.7655216721096</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>6878.6636113148788</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>65.012284935195325</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>65.966991355439802</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2354.4699382300973</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>3.8662793674416066E-2</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.8940980103696982E-2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.30359976396820137</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>6344.5945747687656</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>17722.779321371192</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8480.2491672083997</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8076.8521740019578</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>70.012284935195325</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>75.649238649397986</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3685.2387143918527</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>4.7465772829207185E-2</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.8170625561066188E-2</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.54541890410475746</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7067.6327411904213</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>18445.81748779285</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>9203.2873336300545</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>9101.529322978311</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>75.012284935195325</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>83.718637537139458</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>306.63783796237828</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.6577738031441322E-2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>4.7711248175290447E-2</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.61472545246539168</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8240.6378593561785</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>21843.723122207048</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>9995.7996752080726</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>9989.5130500311716</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>41000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>80.055576366532222</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>89.910630282508734</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>7200.8351617406615</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.2182995470510529E-2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5.0872845477394082E-2</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.38322450014620429</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>8513.208248724226</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>22262.922557139158</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>10413.075965441163</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10413.075965441165</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>44000</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>85.114016693392543</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>7200.219314728407</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.6167205403984719E-2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>5.5471739330782435E-2</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.37917724287097498</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
